--- a/test/functional-tests/resources/definitionsFiles/fe-automation-definition-v02.xlsx
+++ b/test/functional-tests/resources/definitionsFiles/fe-automation-definition-v02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/ccd-case-management-web/test/functional-tests/resources/definitionsFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CA942F-C798-0C4D-B4A2-A27830D1F892}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D32B18A-5044-1844-8BC1-667875E08245}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId18"/>
     <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -140,9 +140,6 @@
     <t>Public</t>
   </si>
   <si>
-    <t>All Data Types</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test case containing all data types </t>
   </si>
   <si>
@@ -1388,7 +1385,10 @@
     <t>Marrital Status Field</t>
   </si>
   <si>
-    <t>auto.test.cnp+fr@gmail.com</t>
+    <t>auto.test.cnp+fe@gmail.com</t>
+  </si>
+  <si>
+    <t>All Field Data Types</t>
   </si>
 </sst>
 </file>
@@ -3041,10 +3041,10 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>14</v>
@@ -3157,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -3179,16 +3179,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,16 +3199,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3217,13 +3217,13 @@
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F4" s="28">
         <v>1</v>
@@ -3235,13 +3235,13 @@
       </c>
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="F5" s="71">
         <v>1</v>
@@ -3253,13 +3253,13 @@
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>72</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>73</v>
       </c>
       <c r="F6" s="71">
         <v>1</v>
@@ -3271,13 +3271,13 @@
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>75</v>
       </c>
       <c r="F7" s="71">
         <v>1</v>
@@ -3289,13 +3289,13 @@
       </c>
       <c r="B8" s="72"/>
       <c r="C8" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="73" t="s">
         <v>76</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>77</v>
       </c>
       <c r="F8" s="71">
         <v>1</v>
@@ -3307,13 +3307,13 @@
       </c>
       <c r="B9" s="72"/>
       <c r="C9" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="71">
         <v>1</v>
@@ -3325,13 +3325,13 @@
       </c>
       <c r="B10" s="72"/>
       <c r="C10" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>80</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>81</v>
       </c>
       <c r="F10" s="71">
         <v>1</v>
@@ -3343,13 +3343,13 @@
       </c>
       <c r="B11" s="72"/>
       <c r="C11" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F11" s="71">
         <v>1</v>
@@ -3361,13 +3361,13 @@
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F12" s="71">
         <v>1</v>
@@ -3379,13 +3379,13 @@
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="F13" s="71">
         <v>1</v>
@@ -3397,13 +3397,13 @@
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="74" t="s">
         <v>86</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>87</v>
       </c>
       <c r="F14" s="71">
         <v>1</v>
@@ -3415,13 +3415,13 @@
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F15" s="71">
         <v>1</v>
@@ -3433,13 +3433,13 @@
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F16" s="71">
         <v>1</v>
@@ -3451,13 +3451,13 @@
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="28">
         <v>1</v>
@@ -3469,13 +3469,13 @@
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F18" s="28">
         <v>1</v>
@@ -3487,13 +3487,13 @@
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="F19" s="28">
         <v>1</v>
@@ -3505,13 +3505,13 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F20" s="28">
         <v>1</v>
@@ -3523,13 +3523,13 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
@@ -3541,13 +3541,13 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F22" s="28">
         <v>1</v>
@@ -3656,7 +3656,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3683,16 +3683,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -3708,16 +3708,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -3731,13 +3731,13 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F4" s="28">
         <v>1</v>
@@ -3754,13 +3754,13 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="28">
         <v>1</v>
@@ -3777,13 +3777,13 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" s="28">
         <v>1</v>
@@ -3800,13 +3800,13 @@
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
@@ -3823,13 +3823,13 @@
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F8" s="28">
         <v>1</v>
@@ -3846,13 +3846,13 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
@@ -3869,13 +3869,13 @@
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="28">
         <v>1</v>
@@ -3916,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -3938,16 +3938,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3958,16 +3958,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3976,13 +3976,13 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F4" s="28">
         <v>1</v>
@@ -3994,13 +3994,13 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="28">
         <v>1</v>
@@ -4012,13 +4012,13 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F6" s="28">
         <v>1</v>
@@ -4030,13 +4030,13 @@
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
@@ -4048,13 +4048,13 @@
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F8" s="28">
         <v>1</v>
@@ -4066,13 +4066,13 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
@@ -4084,13 +4084,13 @@
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="28">
         <v>1</v>
@@ -4128,7 +4128,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4155,16 +4155,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4180,16 +4180,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -4203,13 +4203,13 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F4" s="28">
         <v>1</v>
@@ -4226,13 +4226,13 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="28">
         <v>1</v>
@@ -4249,13 +4249,13 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>318</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>319</v>
       </c>
       <c r="F6" s="28">
         <v>1</v>
@@ -4272,13 +4272,13 @@
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
@@ -4295,13 +4295,13 @@
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F8" s="28">
         <v>1</v>
@@ -4318,13 +4318,13 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
@@ -4341,13 +4341,13 @@
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="28">
         <v>1</v>
@@ -4372,7 +4372,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4390,7 +4390,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4418,13 +4418,13 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4440,16 +4440,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4465,16 +4465,16 @@
         <v>42736</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4490,16 +4490,16 @@
         <v>42736</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4515,16 +4515,16 @@
         <v>42736</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4540,16 +4540,16 @@
         <v>42736</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4565,16 +4565,16 @@
         <v>42736</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4646,7 +4646,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4667,13 +4667,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -4684,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4699,13 +4699,13 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -4714,13 +4714,13 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -4729,13 +4729,13 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4744,13 +4744,13 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4759,13 +4759,13 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4774,13 +4774,13 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4789,13 +4789,13 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4804,13 +4804,13 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +4843,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4870,16 +4870,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="E2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4895,16 +4895,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4918,16 +4918,16 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
@@ -4941,16 +4941,16 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
@@ -4964,16 +4964,16 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
@@ -4987,16 +4987,16 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
@@ -5010,16 +5010,16 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7"/>
@@ -5033,16 +5033,16 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
@@ -5056,16 +5056,16 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="7"/>
@@ -5079,16 +5079,16 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="7"/>
@@ -5102,16 +5102,16 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7"/>
@@ -5125,16 +5125,16 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="7"/>
@@ -5148,16 +5148,16 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5171,16 +5171,16 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5194,16 +5194,16 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" t="s">
         <v>275</v>
       </c>
-      <c r="E16" t="s">
-        <v>276</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -5217,16 +5217,16 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -5239,16 +5239,16 @@
         <v>42736</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5257,16 +5257,16 @@
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
@@ -5279,16 +5279,16 @@
         <v>42736</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5297,16 +5297,16 @@
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
@@ -5320,16 +5320,16 @@
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -5343,16 +5343,16 @@
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -5366,16 +5366,16 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
@@ -5389,16 +5389,16 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="7"/>
@@ -5412,16 +5412,16 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
@@ -5435,16 +5435,16 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="7"/>
@@ -5458,16 +5458,16 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="7"/>
@@ -5481,16 +5481,16 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="7"/>
@@ -5504,16 +5504,16 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="7"/>
@@ -5527,16 +5527,16 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="7"/>
@@ -5550,16 +5550,16 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7"/>
@@ -5573,16 +5573,16 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="7"/>
@@ -5596,16 +5596,16 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="7"/>
@@ -5619,16 +5619,16 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="7"/>
@@ -5642,16 +5642,16 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
@@ -5665,16 +5665,16 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="7"/>
@@ -5688,16 +5688,16 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="7"/>
@@ -5711,16 +5711,16 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="7"/>
@@ -5734,16 +5734,16 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="7"/>
@@ -5757,16 +5757,16 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="7"/>
@@ -5798,7 +5798,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1</v>
@@ -5812,21 +5812,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>258</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>11</v>
@@ -5840,58 +5840,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="D4" s="53" t="s">
         <v>261</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="D5" s="53" t="s">
         <v>264</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="D6" s="53" t="s">
         <v>267</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="D7" s="53" t="s">
         <v>270</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5920,7 +5920,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5947,16 +5947,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5972,16 +5972,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5995,16 +5995,16 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -6018,16 +6018,16 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -6041,16 +6041,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -6064,16 +6064,16 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6087,16 +6087,16 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6110,16 +6110,16 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6133,16 +6133,16 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6156,16 +6156,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6179,16 +6179,16 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -6202,16 +6202,16 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -6225,16 +6225,16 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6248,16 +6248,16 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -6271,16 +6271,16 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6318,7 +6318,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6345,16 +6345,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -6370,16 +6370,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6393,16 +6393,16 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -6429,16 +6429,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -6465,16 +6465,16 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6488,16 +6488,16 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6511,16 +6511,16 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6534,16 +6534,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6557,16 +6557,16 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -6580,16 +6580,16 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="D13" s="69" t="s">
-        <v>382</v>
-      </c>
       <c r="E13" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -6603,16 +6603,16 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6626,16 +6626,16 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -6649,16 +6649,16 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6680,7 +6680,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6796,19 +6796,19 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8" t="s">
@@ -6826,16 +6826,16 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="F5" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -6854,16 +6854,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>292</v>
-      </c>
       <c r="F6" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -6882,16 +6882,16 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D7" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="59" t="s">
-        <v>355</v>
-      </c>
       <c r="F7" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6910,16 +6910,16 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>394</v>
-      </c>
       <c r="F8" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6938,16 +6938,16 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>401</v>
-      </c>
       <c r="F9" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6966,16 +6966,16 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>405</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>406</v>
-      </c>
       <c r="F10" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -7026,7 +7026,7 @@
   <sheetData>
     <row r="1" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7059,34 +7059,34 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -7102,34 +7102,34 @@
         <v>10</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -7143,17 +7143,17 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -7174,17 +7174,17 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -7205,17 +7205,17 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -7236,17 +7236,17 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7267,17 +7267,17 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -7298,17 +7298,17 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -7329,17 +7329,17 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -7360,20 +7360,20 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
@@ -7393,20 +7393,20 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="8" t="s">
@@ -7426,17 +7426,17 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -7457,17 +7457,17 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -7488,17 +7488,17 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -7758,20 +7758,20 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="8" t="s">
@@ -7791,17 +7791,17 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7"/>
@@ -8061,17 +8061,17 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
@@ -8331,17 +8331,17 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
@@ -8601,17 +8601,17 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="7"/>
@@ -8871,17 +8871,17 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D21" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
@@ -9141,17 +9141,17 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D22" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>321</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>322</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="7"/>
@@ -9411,20 +9411,20 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="8" t="s">
@@ -9683,17 +9683,17 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="E24" s="59" t="s">
         <v>337</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>338</v>
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -9953,17 +9953,17 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -10223,17 +10223,17 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -10493,17 +10493,17 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -10763,17 +10763,17 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -11033,17 +11033,17 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -11303,17 +11303,17 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -11573,19 +11573,19 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -11845,20 +11845,20 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="8" t="s">
@@ -12117,17 +12117,17 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -12387,17 +12387,17 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D34" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="E34" s="59" t="s">
         <v>395</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>396</v>
       </c>
       <c r="F34" s="64"/>
       <c r="G34" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -12657,17 +12657,17 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -12927,17 +12927,17 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F36" s="64"/>
       <c r="G36" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -13197,17 +13197,17 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F37" s="64"/>
       <c r="G37" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -13467,21 +13467,21 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>27</v>
@@ -13739,17 +13739,17 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -14009,17 +14009,17 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -14279,17 +14279,17 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -14581,7 +14581,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -14615,37 +14615,37 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -14664,34 +14664,34 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -14705,23 +14705,23 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -14737,17 +14737,17 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="7"/>
@@ -14769,17 +14769,17 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
@@ -14801,23 +14801,23 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -14833,17 +14833,17 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="7"/>
@@ -14865,23 +14865,23 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -14897,17 +14897,17 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
@@ -14929,17 +14929,17 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
@@ -14961,23 +14961,23 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -14993,17 +14993,17 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
@@ -15025,13 +15025,13 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
@@ -15057,23 +15057,23 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -15089,17 +15089,17 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
@@ -15121,13 +15121,13 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8" t="s">
@@ -15153,23 +15153,23 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -15185,17 +15185,17 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
@@ -15217,17 +15217,17 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="7"/>
@@ -15249,19 +15249,19 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
@@ -15283,17 +15283,17 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="7"/>
@@ -15315,17 +15315,17 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>294</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="7"/>
@@ -15347,17 +15347,17 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
@@ -15379,17 +15379,17 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="7"/>
@@ -15411,17 +15411,17 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="7"/>
@@ -15443,19 +15443,19 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
@@ -15500,7 +15500,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -15526,13 +15526,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -15551,10 +15551,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -15568,13 +15568,13 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -15588,13 +15588,13 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -15608,13 +15608,13 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -15628,13 +15628,13 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -15648,13 +15648,13 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -15668,13 +15668,13 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -15688,13 +15688,13 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -15708,13 +15708,13 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -15728,13 +15728,13 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -15748,13 +15748,13 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -15768,13 +15768,13 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>358</v>
-      </c>
       <c r="E14" s="59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -15788,13 +15788,13 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -15837,7 +15837,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3" t="s">
@@ -15867,31 +15867,31 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -15905,31 +15905,31 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -15941,22 +15941,22 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -15973,22 +15973,22 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" s="6">
         <v>2</v>
@@ -16005,22 +16005,22 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
@@ -16037,22 +16037,22 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G7" s="6">
         <v>2</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
@@ -16069,22 +16069,22 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G8" s="6">
         <v>2</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I8" s="6">
         <v>2</v>
@@ -16101,22 +16101,22 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G9" s="6">
         <v>2</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -16133,22 +16133,22 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -16165,22 +16165,22 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G11" s="6">
         <v>3</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I11" s="6">
         <v>3</v>
@@ -16197,22 +16197,22 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G12" s="6">
         <v>3</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I12" s="6">
         <v>3</v>
@@ -16229,22 +16229,22 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G13" s="6">
         <v>3</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I13" s="6">
         <v>3</v>
@@ -16261,29 +16261,29 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G14" s="6">
         <v>4</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -16295,29 +16295,29 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G15" s="6">
         <v>5</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -16329,29 +16329,29 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G16" s="6">
         <v>6</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I16" s="6">
         <v>1</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -16363,22 +16363,22 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
@@ -16395,22 +16395,22 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G18" s="6">
         <v>1</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
@@ -16427,22 +16427,22 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I19" s="6">
         <v>2</v>
@@ -16459,22 +16459,22 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G20" s="6">
         <v>1</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I20" s="6">
         <v>3</v>
@@ -16491,22 +16491,22 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G21" s="6">
         <v>1</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I21" s="6">
         <v>4</v>
@@ -16523,22 +16523,22 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -16555,29 +16555,29 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -16589,28 +16589,28 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K24" s="61"/>
       <c r="L24" s="7"/>
@@ -16651,7 +16651,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -16679,22 +16679,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -16709,7 +16709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -16721,10 +16721,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -16737,13 +16737,13 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6">
@@ -16761,13 +16761,13 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6">
@@ -16785,13 +16785,13 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="59" t="s">
         <v>335</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>336</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="6">
@@ -16809,13 +16809,13 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6">
@@ -16833,13 +16833,13 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="6">
@@ -16857,13 +16857,13 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="6">
@@ -16881,13 +16881,13 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>382</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6">
@@ -16905,13 +16905,13 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6">
@@ -16929,13 +16929,13 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6">
@@ -16953,13 +16953,13 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6">
@@ -17014,7 +17014,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -17050,58 +17050,58 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="L2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="N2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17112,7 +17112,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -17124,46 +17124,46 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17172,23 +17172,23 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -17200,11 +17200,11 @@
         <v>27</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T4" s="8"/>
     </row>
@@ -17214,23 +17214,23 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -17242,7 +17242,7 @@
         <v>27</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -17254,25 +17254,25 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="F6" s="59" t="s">
         <v>333</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>334</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -17284,7 +17284,7 @@
         <v>27</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -17296,23 +17296,23 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -17324,7 +17324,7 @@
         <v>27</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -17336,23 +17336,23 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -17364,7 +17364,7 @@
         <v>27</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -17376,23 +17376,23 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -17404,10 +17404,10 @@
         <v>27</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
@@ -17418,25 +17418,25 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>385</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -17448,10 +17448,10 @@
         <v>27</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
@@ -17462,25 +17462,25 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>387</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -17492,10 +17492,10 @@
         <v>27</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
@@ -17506,25 +17506,25 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>389</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -17536,10 +17536,10 @@
         <v>27</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
@@ -17550,25 +17550,25 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>391</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G13" s="6">
         <v>2</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -17580,10 +17580,10 @@
         <v>27</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
@@ -17594,23 +17594,23 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F14" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -17622,7 +17622,7 @@
         <v>27</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -17634,23 +17634,23 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -17662,7 +17662,7 @@
         <v>27</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -17706,7 +17706,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -17750,43 +17750,43 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="O2" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -17810,43 +17810,43 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -17868,25 +17868,25 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="23">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
@@ -17895,7 +17895,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -17918,25 +17918,25 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="23">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -17945,7 +17945,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -17968,25 +17968,25 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="23">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -17995,7 +17995,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -18018,25 +18018,25 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="23">
         <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -18045,7 +18045,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -18068,25 +18068,25 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -18095,7 +18095,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -18118,25 +18118,25 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="23">
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -18145,7 +18145,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -18168,25 +18168,25 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="23">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
@@ -18195,7 +18195,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -18218,25 +18218,25 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="23">
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
@@ -18245,7 +18245,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -18268,25 +18268,25 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="23">
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
@@ -18295,7 +18295,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -18318,25 +18318,25 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
@@ -18345,7 +18345,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -18368,25 +18368,25 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="23">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J14" s="6">
         <v>1</v>
@@ -18395,7 +18395,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -18418,25 +18418,25 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="23">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
@@ -18445,7 +18445,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -18468,25 +18468,25 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F16" s="23">
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J16" s="6">
         <v>1</v>
@@ -18495,7 +18495,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -18518,25 +18518,25 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="F17" s="23">
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J17" s="6">
         <v>1</v>
@@ -18545,7 +18545,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -18568,25 +18568,25 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F18" s="23">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J18" s="6">
         <v>2</v>
@@ -18595,7 +18595,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -18618,25 +18618,25 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="23">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J19" s="6">
         <v>3</v>
@@ -18645,7 +18645,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -18668,25 +18668,25 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F20" s="23">
         <v>1</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H20" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>376</v>
       </c>
       <c r="J20" s="6">
         <v>1</v>
@@ -18695,7 +18695,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -18718,25 +18718,25 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F21" s="23">
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J21" s="6">
         <v>1</v>
@@ -18745,7 +18745,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -18768,25 +18768,25 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F22" s="23">
         <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
@@ -18795,7 +18795,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -18818,25 +18818,25 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F23" s="23">
         <v>1</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J23" s="6">
         <v>2</v>
@@ -18845,7 +18845,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -18868,25 +18868,25 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F24" s="23">
         <v>1</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I24" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J24" s="6">
         <v>1</v>
@@ -18895,7 +18895,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -18918,25 +18918,25 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F25" s="23">
         <v>1</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I25" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J25" s="6">
         <v>1</v>
@@ -18945,7 +18945,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -18968,25 +18968,25 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>
       </c>
       <c r="G26" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I26" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J26" s="6">
         <v>1</v>
@@ -18995,7 +18995,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -19018,25 +19018,25 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F27" s="23">
         <v>1</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J27" s="6">
         <v>1</v>
@@ -19045,7 +19045,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -19068,25 +19068,25 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F28" s="23">
         <v>1</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J28" s="6">
         <v>1</v>
@@ -19095,7 +19095,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -19118,25 +19118,25 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F29" s="23">
         <v>1</v>
       </c>
       <c r="G29" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I29" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J29" s="6">
         <v>1</v>
@@ -19145,7 +19145,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -19168,25 +19168,25 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F30" s="23">
         <v>1</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J30" s="66">
         <v>1</v>
@@ -19195,7 +19195,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -19218,25 +19218,25 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F31" s="23">
         <v>1</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I31" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J31" s="6">
         <v>1</v>
@@ -19245,7 +19245,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -19268,25 +19268,25 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F32" s="23">
         <v>1</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I32" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J32" s="6">
         <v>1</v>
@@ -19295,7 +19295,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -19318,25 +19318,25 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F33" s="23">
         <v>1</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I33" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J33" s="6">
         <v>1</v>
@@ -19345,7 +19345,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -19368,25 +19368,25 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F34" s="23">
         <v>1</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I34" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J34" s="6">
         <v>1</v>
@@ -19395,7 +19395,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -19418,25 +19418,25 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F35" s="23">
         <v>1</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I35" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J35" s="6">
         <v>1</v>
@@ -19445,7 +19445,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -19468,25 +19468,25 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F36" s="23">
         <v>1</v>
       </c>
       <c r="G36" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I36" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J36" s="6">
         <v>1</v>
@@ -19495,7 +19495,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -19518,25 +19518,25 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F37" s="23">
         <v>1</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H37" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I37" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J37" s="6">
         <v>1</v>
@@ -19545,7 +19545,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -19568,25 +19568,25 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F38" s="23">
         <v>1</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I38" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J38" s="6">
         <v>1</v>
@@ -19595,7 +19595,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -19618,25 +19618,25 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="23">
         <v>1</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J39" s="6">
         <v>1</v>
@@ -19645,7 +19645,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -19668,25 +19668,25 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="23">
         <v>1</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J40" s="6">
         <v>1</v>
@@ -19695,7 +19695,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -19718,36 +19718,36 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F41" s="23">
         <v>2</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J41" s="6">
         <v>1</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -19770,35 +19770,35 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F42" s="23">
         <v>1</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J42" s="6">
         <v>2</v>
       </c>
       <c r="K42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
